--- a/test_2026-01-16_22-30.xlsx
+++ b/test_2026-01-16_22-30.xlsx
@@ -30,6 +30,15 @@
   </si>
   <si>
     <t>عدد التعااملات</t>
+  </si>
+  <si>
+    <t>1 2 3 (ONE TWO THREE) 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>Friday, 16 January, 2026 10:30 PM</t>
@@ -234,10 +243,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -611,43 +620,53 @@
     </row>
     <row r="4" ht="24.75" customHeight="1">
       <c r="A4" s="6">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7"/>
+        <v>1</v>
+      </c>
+      <c t="s" r="B4" s="7">
+        <v>7</v>
+      </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
+      <c t="s" r="H4" s="8">
+        <v>8</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
+      <c r="L4" s="9">
+        <v>80</v>
+      </c>
       <c r="M4" s="9"/>
-      <c r="N4" s="7"/>
+      <c t="s" r="N4" s="7">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" ht="25.5" customHeight="1">
-      <c r="K5" s="10"/>
+    <row r="5" ht="26.25" customHeight="1">
+      <c r="K5" s="10">
+        <v>80</v>
+      </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
     <row r="6" ht="16.5" customHeight="1">
       <c t="s" r="A6" s="11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c t="s" r="F6" s="12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
       <c t="s" r="I6" s="14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
